--- a/Etc/仕様書/UI偏移図仕様書.xlsx
+++ b/Etc/仕様書/UI偏移図仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\Test_StarChildren\Etc\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\橋立隆成\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -486,15 +486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -503,7 +503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="1114424"/>
+          <a:off x="10839450" y="1095374"/>
           <a:ext cx="1762125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -594,11 +594,11 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
@@ -611,9 +611,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10391775" y="1414462"/>
-          <a:ext cx="504825" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="10391775" y="1395412"/>
+          <a:ext cx="447675" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -794,11 +794,11 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
@@ -812,8 +812,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10391775" y="1414462"/>
-          <a:ext cx="504825" cy="0"/>
+          <a:off x="10391775" y="1395412"/>
+          <a:ext cx="447675" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1397,16 +1397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1415,7 +1415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="1600199"/>
+          <a:off x="16897350" y="1657349"/>
           <a:ext cx="2047875" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1454,15 +1454,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1471,7 +1471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10791825" y="238124"/>
+          <a:off x="10744200" y="2247899"/>
           <a:ext cx="2343150" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1509,16 +1509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1527,7 +1527,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13620750" y="781049"/>
+          <a:off x="16887825" y="2647949"/>
           <a:ext cx="2028825" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1567,14 +1567,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1585,9 +1585,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10391775" y="538162"/>
-          <a:ext cx="400050" cy="876300"/>
+        <a:xfrm>
+          <a:off x="10391775" y="1414462"/>
+          <a:ext cx="352425" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1616,15 +1616,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1633,7 +1633,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13716000" y="133349"/>
+          <a:off x="14306550" y="1066799"/>
           <a:ext cx="1314450" cy="457201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1676,15 +1676,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1696,8 +1696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13134975" y="361950"/>
-          <a:ext cx="581025" cy="176212"/>
+          <a:off x="13087350" y="1295400"/>
+          <a:ext cx="1219200" cy="1252537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1726,15 +1726,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1746,8 +1746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="13134975" y="361950"/>
-          <a:ext cx="581025" cy="176212"/>
+          <a:off x="13087350" y="1295400"/>
+          <a:ext cx="1219200" cy="1252537"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1775,29 +1775,135 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13896974" y="2314574"/>
+          <a:ext cx="2371725" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>シーン移動画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="253" idx="3"/>
+          <a:endCxn id="46" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13087350" y="2543175"/>
+          <a:ext cx="809624" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
           <a:endCxn id="254" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13134975" y="538162"/>
-          <a:ext cx="485775" cy="542925"/>
+          <a:off x="16268699" y="2543175"/>
+          <a:ext cx="619126" cy="404812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1825,29 +1931,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="253" idx="3"/>
+          <a:stCxn id="46" idx="3"/>
           <a:endCxn id="245" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13134975" y="538162"/>
-          <a:ext cx="485775" cy="1362075"/>
+        <a:xfrm flipV="1">
+          <a:off x="16268699" y="1957387"/>
+          <a:ext cx="628651" cy="585788"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2141,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Etc/仕様書/UI偏移図仕様書.xlsx
+++ b/Etc/仕様書/UI偏移図仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\橋立隆成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\Test_StarChildren\Etc\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Etc/仕様書/UI偏移図仕様書.xlsx
+++ b/Etc/仕様書/UI偏移図仕様書.xlsx
@@ -375,8 +375,8 @@
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
@@ -388,7 +388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4772025" y="3219449"/>
-          <a:ext cx="2066925" cy="600075"/>
+          <a:ext cx="2400300" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -416,7 +416,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>アルバム画面</a:t>
+            <a:t>アルバムシーン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -848,7 +848,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -863,7 +863,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4181475" y="2666999"/>
-          <a:ext cx="1624013" cy="552450"/>
+          <a:ext cx="1790700" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1048,7 +1048,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -1063,7 +1063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4181475" y="2666999"/>
-          <a:ext cx="1624013" cy="552450"/>
+          <a:ext cx="1790700" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2248,7 +2248,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Etc/仕様書/UI偏移図仕様書.xlsx
+++ b/Etc/仕様書/UI偏移図仕様書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\Test_StarChildren\Etc\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\StarChildren\Etc\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -486,15 +486,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -503,7 +503,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10839450" y="1095374"/>
+          <a:off x="10791825" y="333374"/>
           <a:ext cx="1762125" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -593,12 +593,12 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
@@ -612,8 +612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10391775" y="1395412"/>
-          <a:ext cx="447675" cy="19050"/>
+          <a:off x="10391775" y="633412"/>
+          <a:ext cx="400050" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -793,12 +793,12 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:to>
@@ -812,8 +812,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10391775" y="1395412"/>
-          <a:ext cx="447675" cy="19050"/>
+          <a:off x="10391775" y="633412"/>
+          <a:ext cx="400050" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1320,56 +1320,6 @@
         <a:xfrm flipH="1">
           <a:off x="4181475" y="1414462"/>
           <a:ext cx="285750" cy="652462"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="220" name="直線矢印コネクタ 219"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="1"/>
-          <a:endCxn id="130" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7400925" y="1414462"/>
-          <a:ext cx="352425" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1954,6 +1904,112 @@
         <a:xfrm flipV="1">
           <a:off x="16268699" y="1957387"/>
           <a:ext cx="628651" cy="585788"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="333374"/>
+          <a:ext cx="2047875" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ホームシーン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="633412"/>
+          <a:ext cx="714375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2247,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
